--- a/public/form-template/DATA BARU.xlsx
+++ b/public/form-template/DATA BARU.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alles Uber Gitta\Kerja Praktek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alles Uber Gitta\Kerja Praktek\DATA EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -161,7 +161,7 @@
     <t>WARNA KUNING WAJIB DIISI</t>
   </si>
   <si>
-    <t>No Kartu Kel+D7:AA7uarga</t>
+    <t>No Kartu Keluarga</t>
   </si>
 </sst>
 </file>
@@ -603,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="AG4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/form-template/DATA BARU.xlsx
+++ b/public/form-template/DATA BARU.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alles Uber Gitta\Kerja Praktek\DATA EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edo\Workspace\BPJS - Form\public\form-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D58EBBB-6B5F-4156-A359-5FE00E4933AE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA BARU" sheetId="2" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Kode Satker</t>
   </si>
@@ -167,7 +168,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000000"/>
   </numFmts>
@@ -325,8 +326,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{26E1AB1A-7048-4065-81F5-18983B7F20AF}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -600,11 +629,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2928,9 +2957,7 @@
         <v>40</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="14" t="s">
-        <v>40</v>
-      </c>
+      <c r="C9" s="14"/>
       <c r="D9" s="12"/>
       <c r="E9" s="15"/>
       <c r="F9" s="12"/>
@@ -2970,9 +2997,7 @@
         <v>41</v>
       </c>
       <c r="B10" s="13"/>
-      <c r="C10" s="22" t="s">
-        <v>40</v>
-      </c>
+      <c r="C10" s="22"/>
       <c r="D10" s="12"/>
       <c r="E10" s="15"/>
       <c r="F10" s="21"/>
@@ -3012,9 +3037,7 @@
         <v>42</v>
       </c>
       <c r="B11" s="13"/>
-      <c r="C11" s="22" t="s">
-        <v>40</v>
-      </c>
+      <c r="C11" s="22"/>
       <c r="D11" s="12"/>
       <c r="E11" s="15"/>
       <c r="F11" s="21"/>
@@ -3129,7 +3152,7 @@
     <mergeCell ref="E5:H5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="GAJI POKOK_x000a_HARUS NUMERIK_x000a_" sqref="AB9:AB11 JX9:JX11 TT9:TT11 ADP9:ADP11 ANL9:ANL11 AXH9:AXH11 BHD9:BHD11 BQZ9:BQZ11 CAV9:CAV11 CKR9:CKR11 CUN9:CUN11 DEJ9:DEJ11 DOF9:DOF11 DYB9:DYB11 EHX9:EHX11 ERT9:ERT11 FBP9:FBP11 FLL9:FLL11 FVH9:FVH11 GFD9:GFD11 GOZ9:GOZ11 GYV9:GYV11 HIR9:HIR11 HSN9:HSN11 ICJ9:ICJ11 IMF9:IMF11 IWB9:IWB11 JFX9:JFX11 JPT9:JPT11 JZP9:JZP11 KJL9:KJL11 KTH9:KTH11 LDD9:LDD11 LMZ9:LMZ11 LWV9:LWV11 MGR9:MGR11 MQN9:MQN11 NAJ9:NAJ11 NKF9:NKF11 NUB9:NUB11 ODX9:ODX11 ONT9:ONT11 OXP9:OXP11 PHL9:PHL11 PRH9:PRH11 QBD9:QBD11 QKZ9:QKZ11 QUV9:QUV11 RER9:RER11 RON9:RON11 RYJ9:RYJ11 SIF9:SIF11 SSB9:SSB11 TBX9:TBX11 TLT9:TLT11 TVP9:TVP11 UFL9:UFL11 UPH9:UPH11 UZD9:UZD11 VIZ9:VIZ11 VSV9:VSV11 WCR9:WCR11 WMN9:WMN11 WWJ9:WWJ11 AB65545:AB65547 JX65545:JX65547 TT65545:TT65547 ADP65545:ADP65547 ANL65545:ANL65547 AXH65545:AXH65547 BHD65545:BHD65547 BQZ65545:BQZ65547 CAV65545:CAV65547 CKR65545:CKR65547 CUN65545:CUN65547 DEJ65545:DEJ65547 DOF65545:DOF65547 DYB65545:DYB65547 EHX65545:EHX65547 ERT65545:ERT65547 FBP65545:FBP65547 FLL65545:FLL65547 FVH65545:FVH65547 GFD65545:GFD65547 GOZ65545:GOZ65547 GYV65545:GYV65547 HIR65545:HIR65547 HSN65545:HSN65547 ICJ65545:ICJ65547 IMF65545:IMF65547 IWB65545:IWB65547 JFX65545:JFX65547 JPT65545:JPT65547 JZP65545:JZP65547 KJL65545:KJL65547 KTH65545:KTH65547 LDD65545:LDD65547 LMZ65545:LMZ65547 LWV65545:LWV65547 MGR65545:MGR65547 MQN65545:MQN65547 NAJ65545:NAJ65547 NKF65545:NKF65547 NUB65545:NUB65547 ODX65545:ODX65547 ONT65545:ONT65547 OXP65545:OXP65547 PHL65545:PHL65547 PRH65545:PRH65547 QBD65545:QBD65547 QKZ65545:QKZ65547 QUV65545:QUV65547 RER65545:RER65547 RON65545:RON65547 RYJ65545:RYJ65547 SIF65545:SIF65547 SSB65545:SSB65547 TBX65545:TBX65547 TLT65545:TLT65547 TVP65545:TVP65547 UFL65545:UFL65547 UPH65545:UPH65547 UZD65545:UZD65547 VIZ65545:VIZ65547 VSV65545:VSV65547 WCR65545:WCR65547 WMN65545:WMN65547 WWJ65545:WWJ65547 AB131081:AB131083 JX131081:JX131083 TT131081:TT131083 ADP131081:ADP131083 ANL131081:ANL131083 AXH131081:AXH131083 BHD131081:BHD131083 BQZ131081:BQZ131083 CAV131081:CAV131083 CKR131081:CKR131083 CUN131081:CUN131083 DEJ131081:DEJ131083 DOF131081:DOF131083 DYB131081:DYB131083 EHX131081:EHX131083 ERT131081:ERT131083 FBP131081:FBP131083 FLL131081:FLL131083 FVH131081:FVH131083 GFD131081:GFD131083 GOZ131081:GOZ131083 GYV131081:GYV131083 HIR131081:HIR131083 HSN131081:HSN131083 ICJ131081:ICJ131083 IMF131081:IMF131083 IWB131081:IWB131083 JFX131081:JFX131083 JPT131081:JPT131083 JZP131081:JZP131083 KJL131081:KJL131083 KTH131081:KTH131083 LDD131081:LDD131083 LMZ131081:LMZ131083 LWV131081:LWV131083 MGR131081:MGR131083 MQN131081:MQN131083 NAJ131081:NAJ131083 NKF131081:NKF131083 NUB131081:NUB131083 ODX131081:ODX131083 ONT131081:ONT131083 OXP131081:OXP131083 PHL131081:PHL131083 PRH131081:PRH131083 QBD131081:QBD131083 QKZ131081:QKZ131083 QUV131081:QUV131083 RER131081:RER131083 RON131081:RON131083 RYJ131081:RYJ131083 SIF131081:SIF131083 SSB131081:SSB131083 TBX131081:TBX131083 TLT131081:TLT131083 TVP131081:TVP131083 UFL131081:UFL131083 UPH131081:UPH131083 UZD131081:UZD131083 VIZ131081:VIZ131083 VSV131081:VSV131083 WCR131081:WCR131083 WMN131081:WMN131083 WWJ131081:WWJ131083 AB196617:AB196619 JX196617:JX196619 TT196617:TT196619 ADP196617:ADP196619 ANL196617:ANL196619 AXH196617:AXH196619 BHD196617:BHD196619 BQZ196617:BQZ196619 CAV196617:CAV196619 CKR196617:CKR196619 CUN196617:CUN196619 DEJ196617:DEJ196619 DOF196617:DOF196619 DYB196617:DYB196619 EHX196617:EHX196619 ERT196617:ERT196619 FBP196617:FBP196619 FLL196617:FLL196619 FVH196617:FVH196619 GFD196617:GFD196619 GOZ196617:GOZ196619 GYV196617:GYV196619 HIR196617:HIR196619 HSN196617:HSN196619 ICJ196617:ICJ196619 IMF196617:IMF196619 IWB196617:IWB196619 JFX196617:JFX196619 JPT196617:JPT196619 JZP196617:JZP196619 KJL196617:KJL196619 KTH196617:KTH196619 LDD196617:LDD196619 LMZ196617:LMZ196619 LWV196617:LWV196619 MGR196617:MGR196619 MQN196617:MQN196619 NAJ196617:NAJ196619 NKF196617:NKF196619 NUB196617:NUB196619 ODX196617:ODX196619 ONT196617:ONT196619 OXP196617:OXP196619 PHL196617:PHL196619 PRH196617:PRH196619 QBD196617:QBD196619 QKZ196617:QKZ196619 QUV196617:QUV196619 RER196617:RER196619 RON196617:RON196619 RYJ196617:RYJ196619 SIF196617:SIF196619 SSB196617:SSB196619 TBX196617:TBX196619 TLT196617:TLT196619 TVP196617:TVP196619 UFL196617:UFL196619 UPH196617:UPH196619 UZD196617:UZD196619 VIZ196617:VIZ196619 VSV196617:VSV196619 WCR196617:WCR196619 WMN196617:WMN196619 WWJ196617:WWJ196619 AB262153:AB262155 JX262153:JX262155 TT262153:TT262155 ADP262153:ADP262155 ANL262153:ANL262155 AXH262153:AXH262155 BHD262153:BHD262155 BQZ262153:BQZ262155 CAV262153:CAV262155 CKR262153:CKR262155 CUN262153:CUN262155 DEJ262153:DEJ262155 DOF262153:DOF262155 DYB262153:DYB262155 EHX262153:EHX262155 ERT262153:ERT262155 FBP262153:FBP262155 FLL262153:FLL262155 FVH262153:FVH262155 GFD262153:GFD262155 GOZ262153:GOZ262155 GYV262153:GYV262155 HIR262153:HIR262155 HSN262153:HSN262155 ICJ262153:ICJ262155 IMF262153:IMF262155 IWB262153:IWB262155 JFX262153:JFX262155 JPT262153:JPT262155 JZP262153:JZP262155 KJL262153:KJL262155 KTH262153:KTH262155 LDD262153:LDD262155 LMZ262153:LMZ262155 LWV262153:LWV262155 MGR262153:MGR262155 MQN262153:MQN262155 NAJ262153:NAJ262155 NKF262153:NKF262155 NUB262153:NUB262155 ODX262153:ODX262155 ONT262153:ONT262155 OXP262153:OXP262155 PHL262153:PHL262155 PRH262153:PRH262155 QBD262153:QBD262155 QKZ262153:QKZ262155 QUV262153:QUV262155 RER262153:RER262155 RON262153:RON262155 RYJ262153:RYJ262155 SIF262153:SIF262155 SSB262153:SSB262155 TBX262153:TBX262155 TLT262153:TLT262155 TVP262153:TVP262155 UFL262153:UFL262155 UPH262153:UPH262155 UZD262153:UZD262155 VIZ262153:VIZ262155 VSV262153:VSV262155 WCR262153:WCR262155 WMN262153:WMN262155 WWJ262153:WWJ262155 AB327689:AB327691 JX327689:JX327691 TT327689:TT327691 ADP327689:ADP327691 ANL327689:ANL327691 AXH327689:AXH327691 BHD327689:BHD327691 BQZ327689:BQZ327691 CAV327689:CAV327691 CKR327689:CKR327691 CUN327689:CUN327691 DEJ327689:DEJ327691 DOF327689:DOF327691 DYB327689:DYB327691 EHX327689:EHX327691 ERT327689:ERT327691 FBP327689:FBP327691 FLL327689:FLL327691 FVH327689:FVH327691 GFD327689:GFD327691 GOZ327689:GOZ327691 GYV327689:GYV327691 HIR327689:HIR327691 HSN327689:HSN327691 ICJ327689:ICJ327691 IMF327689:IMF327691 IWB327689:IWB327691 JFX327689:JFX327691 JPT327689:JPT327691 JZP327689:JZP327691 KJL327689:KJL327691 KTH327689:KTH327691 LDD327689:LDD327691 LMZ327689:LMZ327691 LWV327689:LWV327691 MGR327689:MGR327691 MQN327689:MQN327691 NAJ327689:NAJ327691 NKF327689:NKF327691 NUB327689:NUB327691 ODX327689:ODX327691 ONT327689:ONT327691 OXP327689:OXP327691 PHL327689:PHL327691 PRH327689:PRH327691 QBD327689:QBD327691 QKZ327689:QKZ327691 QUV327689:QUV327691 RER327689:RER327691 RON327689:RON327691 RYJ327689:RYJ327691 SIF327689:SIF327691 SSB327689:SSB327691 TBX327689:TBX327691 TLT327689:TLT327691 TVP327689:TVP327691 UFL327689:UFL327691 UPH327689:UPH327691 UZD327689:UZD327691 VIZ327689:VIZ327691 VSV327689:VSV327691 WCR327689:WCR327691 WMN327689:WMN327691 WWJ327689:WWJ327691 AB393225:AB393227 JX393225:JX393227 TT393225:TT393227 ADP393225:ADP393227 ANL393225:ANL393227 AXH393225:AXH393227 BHD393225:BHD393227 BQZ393225:BQZ393227 CAV393225:CAV393227 CKR393225:CKR393227 CUN393225:CUN393227 DEJ393225:DEJ393227 DOF393225:DOF393227 DYB393225:DYB393227 EHX393225:EHX393227 ERT393225:ERT393227 FBP393225:FBP393227 FLL393225:FLL393227 FVH393225:FVH393227 GFD393225:GFD393227 GOZ393225:GOZ393227 GYV393225:GYV393227 HIR393225:HIR393227 HSN393225:HSN393227 ICJ393225:ICJ393227 IMF393225:IMF393227 IWB393225:IWB393227 JFX393225:JFX393227 JPT393225:JPT393227 JZP393225:JZP393227 KJL393225:KJL393227 KTH393225:KTH393227 LDD393225:LDD393227 LMZ393225:LMZ393227 LWV393225:LWV393227 MGR393225:MGR393227 MQN393225:MQN393227 NAJ393225:NAJ393227 NKF393225:NKF393227 NUB393225:NUB393227 ODX393225:ODX393227 ONT393225:ONT393227 OXP393225:OXP393227 PHL393225:PHL393227 PRH393225:PRH393227 QBD393225:QBD393227 QKZ393225:QKZ393227 QUV393225:QUV393227 RER393225:RER393227 RON393225:RON393227 RYJ393225:RYJ393227 SIF393225:SIF393227 SSB393225:SSB393227 TBX393225:TBX393227 TLT393225:TLT393227 TVP393225:TVP393227 UFL393225:UFL393227 UPH393225:UPH393227 UZD393225:UZD393227 VIZ393225:VIZ393227 VSV393225:VSV393227 WCR393225:WCR393227 WMN393225:WMN393227 WWJ393225:WWJ393227 AB458761:AB458763 JX458761:JX458763 TT458761:TT458763 ADP458761:ADP458763 ANL458761:ANL458763 AXH458761:AXH458763 BHD458761:BHD458763 BQZ458761:BQZ458763 CAV458761:CAV458763 CKR458761:CKR458763 CUN458761:CUN458763 DEJ458761:DEJ458763 DOF458761:DOF458763 DYB458761:DYB458763 EHX458761:EHX458763 ERT458761:ERT458763 FBP458761:FBP458763 FLL458761:FLL458763 FVH458761:FVH458763 GFD458761:GFD458763 GOZ458761:GOZ458763 GYV458761:GYV458763 HIR458761:HIR458763 HSN458761:HSN458763 ICJ458761:ICJ458763 IMF458761:IMF458763 IWB458761:IWB458763 JFX458761:JFX458763 JPT458761:JPT458763 JZP458761:JZP458763 KJL458761:KJL458763 KTH458761:KTH458763 LDD458761:LDD458763 LMZ458761:LMZ458763 LWV458761:LWV458763 MGR458761:MGR458763 MQN458761:MQN458763 NAJ458761:NAJ458763 NKF458761:NKF458763 NUB458761:NUB458763 ODX458761:ODX458763 ONT458761:ONT458763 OXP458761:OXP458763 PHL458761:PHL458763 PRH458761:PRH458763 QBD458761:QBD458763 QKZ458761:QKZ458763 QUV458761:QUV458763 RER458761:RER458763 RON458761:RON458763 RYJ458761:RYJ458763 SIF458761:SIF458763 SSB458761:SSB458763 TBX458761:TBX458763 TLT458761:TLT458763 TVP458761:TVP458763 UFL458761:UFL458763 UPH458761:UPH458763 UZD458761:UZD458763 VIZ458761:VIZ458763 VSV458761:VSV458763 WCR458761:WCR458763 WMN458761:WMN458763 WWJ458761:WWJ458763 AB524297:AB524299 JX524297:JX524299 TT524297:TT524299 ADP524297:ADP524299 ANL524297:ANL524299 AXH524297:AXH524299 BHD524297:BHD524299 BQZ524297:BQZ524299 CAV524297:CAV524299 CKR524297:CKR524299 CUN524297:CUN524299 DEJ524297:DEJ524299 DOF524297:DOF524299 DYB524297:DYB524299 EHX524297:EHX524299 ERT524297:ERT524299 FBP524297:FBP524299 FLL524297:FLL524299 FVH524297:FVH524299 GFD524297:GFD524299 GOZ524297:GOZ524299 GYV524297:GYV524299 HIR524297:HIR524299 HSN524297:HSN524299 ICJ524297:ICJ524299 IMF524297:IMF524299 IWB524297:IWB524299 JFX524297:JFX524299 JPT524297:JPT524299 JZP524297:JZP524299 KJL524297:KJL524299 KTH524297:KTH524299 LDD524297:LDD524299 LMZ524297:LMZ524299 LWV524297:LWV524299 MGR524297:MGR524299 MQN524297:MQN524299 NAJ524297:NAJ524299 NKF524297:NKF524299 NUB524297:NUB524299 ODX524297:ODX524299 ONT524297:ONT524299 OXP524297:OXP524299 PHL524297:PHL524299 PRH524297:PRH524299 QBD524297:QBD524299 QKZ524297:QKZ524299 QUV524297:QUV524299 RER524297:RER524299 RON524297:RON524299 RYJ524297:RYJ524299 SIF524297:SIF524299 SSB524297:SSB524299 TBX524297:TBX524299 TLT524297:TLT524299 TVP524297:TVP524299 UFL524297:UFL524299 UPH524297:UPH524299 UZD524297:UZD524299 VIZ524297:VIZ524299 VSV524297:VSV524299 WCR524297:WCR524299 WMN524297:WMN524299 WWJ524297:WWJ524299 AB589833:AB589835 JX589833:JX589835 TT589833:TT589835 ADP589833:ADP589835 ANL589833:ANL589835 AXH589833:AXH589835 BHD589833:BHD589835 BQZ589833:BQZ589835 CAV589833:CAV589835 CKR589833:CKR589835 CUN589833:CUN589835 DEJ589833:DEJ589835 DOF589833:DOF589835 DYB589833:DYB589835 EHX589833:EHX589835 ERT589833:ERT589835 FBP589833:FBP589835 FLL589833:FLL589835 FVH589833:FVH589835 GFD589833:GFD589835 GOZ589833:GOZ589835 GYV589833:GYV589835 HIR589833:HIR589835 HSN589833:HSN589835 ICJ589833:ICJ589835 IMF589833:IMF589835 IWB589833:IWB589835 JFX589833:JFX589835 JPT589833:JPT589835 JZP589833:JZP589835 KJL589833:KJL589835 KTH589833:KTH589835 LDD589833:LDD589835 LMZ589833:LMZ589835 LWV589833:LWV589835 MGR589833:MGR589835 MQN589833:MQN589835 NAJ589833:NAJ589835 NKF589833:NKF589835 NUB589833:NUB589835 ODX589833:ODX589835 ONT589833:ONT589835 OXP589833:OXP589835 PHL589833:PHL589835 PRH589833:PRH589835 QBD589833:QBD589835 QKZ589833:QKZ589835 QUV589833:QUV589835 RER589833:RER589835 RON589833:RON589835 RYJ589833:RYJ589835 SIF589833:SIF589835 SSB589833:SSB589835 TBX589833:TBX589835 TLT589833:TLT589835 TVP589833:TVP589835 UFL589833:UFL589835 UPH589833:UPH589835 UZD589833:UZD589835 VIZ589833:VIZ589835 VSV589833:VSV589835 WCR589833:WCR589835 WMN589833:WMN589835 WWJ589833:WWJ589835 AB655369:AB655371 JX655369:JX655371 TT655369:TT655371 ADP655369:ADP655371 ANL655369:ANL655371 AXH655369:AXH655371 BHD655369:BHD655371 BQZ655369:BQZ655371 CAV655369:CAV655371 CKR655369:CKR655371 CUN655369:CUN655371 DEJ655369:DEJ655371 DOF655369:DOF655371 DYB655369:DYB655371 EHX655369:EHX655371 ERT655369:ERT655371 FBP655369:FBP655371 FLL655369:FLL655371 FVH655369:FVH655371 GFD655369:GFD655371 GOZ655369:GOZ655371 GYV655369:GYV655371 HIR655369:HIR655371 HSN655369:HSN655371 ICJ655369:ICJ655371 IMF655369:IMF655371 IWB655369:IWB655371 JFX655369:JFX655371 JPT655369:JPT655371 JZP655369:JZP655371 KJL655369:KJL655371 KTH655369:KTH655371 LDD655369:LDD655371 LMZ655369:LMZ655371 LWV655369:LWV655371 MGR655369:MGR655371 MQN655369:MQN655371 NAJ655369:NAJ655371 NKF655369:NKF655371 NUB655369:NUB655371 ODX655369:ODX655371 ONT655369:ONT655371 OXP655369:OXP655371 PHL655369:PHL655371 PRH655369:PRH655371 QBD655369:QBD655371 QKZ655369:QKZ655371 QUV655369:QUV655371 RER655369:RER655371 RON655369:RON655371 RYJ655369:RYJ655371 SIF655369:SIF655371 SSB655369:SSB655371 TBX655369:TBX655371 TLT655369:TLT655371 TVP655369:TVP655371 UFL655369:UFL655371 UPH655369:UPH655371 UZD655369:UZD655371 VIZ655369:VIZ655371 VSV655369:VSV655371 WCR655369:WCR655371 WMN655369:WMN655371 WWJ655369:WWJ655371 AB720905:AB720907 JX720905:JX720907 TT720905:TT720907 ADP720905:ADP720907 ANL720905:ANL720907 AXH720905:AXH720907 BHD720905:BHD720907 BQZ720905:BQZ720907 CAV720905:CAV720907 CKR720905:CKR720907 CUN720905:CUN720907 DEJ720905:DEJ720907 DOF720905:DOF720907 DYB720905:DYB720907 EHX720905:EHX720907 ERT720905:ERT720907 FBP720905:FBP720907 FLL720905:FLL720907 FVH720905:FVH720907 GFD720905:GFD720907 GOZ720905:GOZ720907 GYV720905:GYV720907 HIR720905:HIR720907 HSN720905:HSN720907 ICJ720905:ICJ720907 IMF720905:IMF720907 IWB720905:IWB720907 JFX720905:JFX720907 JPT720905:JPT720907 JZP720905:JZP720907 KJL720905:KJL720907 KTH720905:KTH720907 LDD720905:LDD720907 LMZ720905:LMZ720907 LWV720905:LWV720907 MGR720905:MGR720907 MQN720905:MQN720907 NAJ720905:NAJ720907 NKF720905:NKF720907 NUB720905:NUB720907 ODX720905:ODX720907 ONT720905:ONT720907 OXP720905:OXP720907 PHL720905:PHL720907 PRH720905:PRH720907 QBD720905:QBD720907 QKZ720905:QKZ720907 QUV720905:QUV720907 RER720905:RER720907 RON720905:RON720907 RYJ720905:RYJ720907 SIF720905:SIF720907 SSB720905:SSB720907 TBX720905:TBX720907 TLT720905:TLT720907 TVP720905:TVP720907 UFL720905:UFL720907 UPH720905:UPH720907 UZD720905:UZD720907 VIZ720905:VIZ720907 VSV720905:VSV720907 WCR720905:WCR720907 WMN720905:WMN720907 WWJ720905:WWJ720907 AB786441:AB786443 JX786441:JX786443 TT786441:TT786443 ADP786441:ADP786443 ANL786441:ANL786443 AXH786441:AXH786443 BHD786441:BHD786443 BQZ786441:BQZ786443 CAV786441:CAV786443 CKR786441:CKR786443 CUN786441:CUN786443 DEJ786441:DEJ786443 DOF786441:DOF786443 DYB786441:DYB786443 EHX786441:EHX786443 ERT786441:ERT786443 FBP786441:FBP786443 FLL786441:FLL786443 FVH786441:FVH786443 GFD786441:GFD786443 GOZ786441:GOZ786443 GYV786441:GYV786443 HIR786441:HIR786443 HSN786441:HSN786443 ICJ786441:ICJ786443 IMF786441:IMF786443 IWB786441:IWB786443 JFX786441:JFX786443 JPT786441:JPT786443 JZP786441:JZP786443 KJL786441:KJL786443 KTH786441:KTH786443 LDD786441:LDD786443 LMZ786441:LMZ786443 LWV786441:LWV786443 MGR786441:MGR786443 MQN786441:MQN786443 NAJ786441:NAJ786443 NKF786441:NKF786443 NUB786441:NUB786443 ODX786441:ODX786443 ONT786441:ONT786443 OXP786441:OXP786443 PHL786441:PHL786443 PRH786441:PRH786443 QBD786441:QBD786443 QKZ786441:QKZ786443 QUV786441:QUV786443 RER786441:RER786443 RON786441:RON786443 RYJ786441:RYJ786443 SIF786441:SIF786443 SSB786441:SSB786443 TBX786441:TBX786443 TLT786441:TLT786443 TVP786441:TVP786443 UFL786441:UFL786443 UPH786441:UPH786443 UZD786441:UZD786443 VIZ786441:VIZ786443 VSV786441:VSV786443 WCR786441:WCR786443 WMN786441:WMN786443 WWJ786441:WWJ786443 AB851977:AB851979 JX851977:JX851979 TT851977:TT851979 ADP851977:ADP851979 ANL851977:ANL851979 AXH851977:AXH851979 BHD851977:BHD851979 BQZ851977:BQZ851979 CAV851977:CAV851979 CKR851977:CKR851979 CUN851977:CUN851979 DEJ851977:DEJ851979 DOF851977:DOF851979 DYB851977:DYB851979 EHX851977:EHX851979 ERT851977:ERT851979 FBP851977:FBP851979 FLL851977:FLL851979 FVH851977:FVH851979 GFD851977:GFD851979 GOZ851977:GOZ851979 GYV851977:GYV851979 HIR851977:HIR851979 HSN851977:HSN851979 ICJ851977:ICJ851979 IMF851977:IMF851979 IWB851977:IWB851979 JFX851977:JFX851979 JPT851977:JPT851979 JZP851977:JZP851979 KJL851977:KJL851979 KTH851977:KTH851979 LDD851977:LDD851979 LMZ851977:LMZ851979 LWV851977:LWV851979 MGR851977:MGR851979 MQN851977:MQN851979 NAJ851977:NAJ851979 NKF851977:NKF851979 NUB851977:NUB851979 ODX851977:ODX851979 ONT851977:ONT851979 OXP851977:OXP851979 PHL851977:PHL851979 PRH851977:PRH851979 QBD851977:QBD851979 QKZ851977:QKZ851979 QUV851977:QUV851979 RER851977:RER851979 RON851977:RON851979 RYJ851977:RYJ851979 SIF851977:SIF851979 SSB851977:SSB851979 TBX851977:TBX851979 TLT851977:TLT851979 TVP851977:TVP851979 UFL851977:UFL851979 UPH851977:UPH851979 UZD851977:UZD851979 VIZ851977:VIZ851979 VSV851977:VSV851979 WCR851977:WCR851979 WMN851977:WMN851979 WWJ851977:WWJ851979 AB917513:AB917515 JX917513:JX917515 TT917513:TT917515 ADP917513:ADP917515 ANL917513:ANL917515 AXH917513:AXH917515 BHD917513:BHD917515 BQZ917513:BQZ917515 CAV917513:CAV917515 CKR917513:CKR917515 CUN917513:CUN917515 DEJ917513:DEJ917515 DOF917513:DOF917515 DYB917513:DYB917515 EHX917513:EHX917515 ERT917513:ERT917515 FBP917513:FBP917515 FLL917513:FLL917515 FVH917513:FVH917515 GFD917513:GFD917515 GOZ917513:GOZ917515 GYV917513:GYV917515 HIR917513:HIR917515 HSN917513:HSN917515 ICJ917513:ICJ917515 IMF917513:IMF917515 IWB917513:IWB917515 JFX917513:JFX917515 JPT917513:JPT917515 JZP917513:JZP917515 KJL917513:KJL917515 KTH917513:KTH917515 LDD917513:LDD917515 LMZ917513:LMZ917515 LWV917513:LWV917515 MGR917513:MGR917515 MQN917513:MQN917515 NAJ917513:NAJ917515 NKF917513:NKF917515 NUB917513:NUB917515 ODX917513:ODX917515 ONT917513:ONT917515 OXP917513:OXP917515 PHL917513:PHL917515 PRH917513:PRH917515 QBD917513:QBD917515 QKZ917513:QKZ917515 QUV917513:QUV917515 RER917513:RER917515 RON917513:RON917515 RYJ917513:RYJ917515 SIF917513:SIF917515 SSB917513:SSB917515 TBX917513:TBX917515 TLT917513:TLT917515 TVP917513:TVP917515 UFL917513:UFL917515 UPH917513:UPH917515 UZD917513:UZD917515 VIZ917513:VIZ917515 VSV917513:VSV917515 WCR917513:WCR917515 WMN917513:WMN917515 WWJ917513:WWJ917515 AB983049:AB983051 JX983049:JX983051 TT983049:TT983051 ADP983049:ADP983051 ANL983049:ANL983051 AXH983049:AXH983051 BHD983049:BHD983051 BQZ983049:BQZ983051 CAV983049:CAV983051 CKR983049:CKR983051 CUN983049:CUN983051 DEJ983049:DEJ983051 DOF983049:DOF983051 DYB983049:DYB983051 EHX983049:EHX983051 ERT983049:ERT983051 FBP983049:FBP983051 FLL983049:FLL983051 FVH983049:FVH983051 GFD983049:GFD983051 GOZ983049:GOZ983051 GYV983049:GYV983051 HIR983049:HIR983051 HSN983049:HSN983051 ICJ983049:ICJ983051 IMF983049:IMF983051 IWB983049:IWB983051 JFX983049:JFX983051 JPT983049:JPT983051 JZP983049:JZP983051 KJL983049:KJL983051 KTH983049:KTH983051 LDD983049:LDD983051 LMZ983049:LMZ983051 LWV983049:LWV983051 MGR983049:MGR983051 MQN983049:MQN983051 NAJ983049:NAJ983051 NKF983049:NKF983051 NUB983049:NUB983051 ODX983049:ODX983051 ONT983049:ONT983051 OXP983049:OXP983051 PHL983049:PHL983051 PRH983049:PRH983051 QBD983049:QBD983051 QKZ983049:QKZ983051 QUV983049:QUV983051 RER983049:RER983051 RON983049:RON983051 RYJ983049:RYJ983051 SIF983049:SIF983051 SSB983049:SSB983051 TBX983049:TBX983051 TLT983049:TLT983051 TVP983049:TVP983051 UFL983049:UFL983051 UPH983049:UPH983051 UZD983049:UZD983051 VIZ983049:VIZ983051 VSV983049:VSV983051 WCR983049:WCR983051 WMN983049:WMN983051 WWJ983049:WWJ983051">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="GAJI POKOK_x000a_HARUS NUMERIK_x000a_" sqref="AB9:AB11 JX9:JX11 TT9:TT11 ADP9:ADP11 ANL9:ANL11 AXH9:AXH11 BHD9:BHD11 BQZ9:BQZ11 CAV9:CAV11 CKR9:CKR11 CUN9:CUN11 DEJ9:DEJ11 DOF9:DOF11 DYB9:DYB11 EHX9:EHX11 ERT9:ERT11 FBP9:FBP11 FLL9:FLL11 FVH9:FVH11 GFD9:GFD11 GOZ9:GOZ11 GYV9:GYV11 HIR9:HIR11 HSN9:HSN11 ICJ9:ICJ11 IMF9:IMF11 IWB9:IWB11 JFX9:JFX11 JPT9:JPT11 JZP9:JZP11 KJL9:KJL11 KTH9:KTH11 LDD9:LDD11 LMZ9:LMZ11 LWV9:LWV11 MGR9:MGR11 MQN9:MQN11 NAJ9:NAJ11 NKF9:NKF11 NUB9:NUB11 ODX9:ODX11 ONT9:ONT11 OXP9:OXP11 PHL9:PHL11 PRH9:PRH11 QBD9:QBD11 QKZ9:QKZ11 QUV9:QUV11 RER9:RER11 RON9:RON11 RYJ9:RYJ11 SIF9:SIF11 SSB9:SSB11 TBX9:TBX11 TLT9:TLT11 TVP9:TVP11 UFL9:UFL11 UPH9:UPH11 UZD9:UZD11 VIZ9:VIZ11 VSV9:VSV11 WCR9:WCR11 WMN9:WMN11 WWJ9:WWJ11 AB65545:AB65547 JX65545:JX65547 TT65545:TT65547 ADP65545:ADP65547 ANL65545:ANL65547 AXH65545:AXH65547 BHD65545:BHD65547 BQZ65545:BQZ65547 CAV65545:CAV65547 CKR65545:CKR65547 CUN65545:CUN65547 DEJ65545:DEJ65547 DOF65545:DOF65547 DYB65545:DYB65547 EHX65545:EHX65547 ERT65545:ERT65547 FBP65545:FBP65547 FLL65545:FLL65547 FVH65545:FVH65547 GFD65545:GFD65547 GOZ65545:GOZ65547 GYV65545:GYV65547 HIR65545:HIR65547 HSN65545:HSN65547 ICJ65545:ICJ65547 IMF65545:IMF65547 IWB65545:IWB65547 JFX65545:JFX65547 JPT65545:JPT65547 JZP65545:JZP65547 KJL65545:KJL65547 KTH65545:KTH65547 LDD65545:LDD65547 LMZ65545:LMZ65547 LWV65545:LWV65547 MGR65545:MGR65547 MQN65545:MQN65547 NAJ65545:NAJ65547 NKF65545:NKF65547 NUB65545:NUB65547 ODX65545:ODX65547 ONT65545:ONT65547 OXP65545:OXP65547 PHL65545:PHL65547 PRH65545:PRH65547 QBD65545:QBD65547 QKZ65545:QKZ65547 QUV65545:QUV65547 RER65545:RER65547 RON65545:RON65547 RYJ65545:RYJ65547 SIF65545:SIF65547 SSB65545:SSB65547 TBX65545:TBX65547 TLT65545:TLT65547 TVP65545:TVP65547 UFL65545:UFL65547 UPH65545:UPH65547 UZD65545:UZD65547 VIZ65545:VIZ65547 VSV65545:VSV65547 WCR65545:WCR65547 WMN65545:WMN65547 WWJ65545:WWJ65547 AB131081:AB131083 JX131081:JX131083 TT131081:TT131083 ADP131081:ADP131083 ANL131081:ANL131083 AXH131081:AXH131083 BHD131081:BHD131083 BQZ131081:BQZ131083 CAV131081:CAV131083 CKR131081:CKR131083 CUN131081:CUN131083 DEJ131081:DEJ131083 DOF131081:DOF131083 DYB131081:DYB131083 EHX131081:EHX131083 ERT131081:ERT131083 FBP131081:FBP131083 FLL131081:FLL131083 FVH131081:FVH131083 GFD131081:GFD131083 GOZ131081:GOZ131083 GYV131081:GYV131083 HIR131081:HIR131083 HSN131081:HSN131083 ICJ131081:ICJ131083 IMF131081:IMF131083 IWB131081:IWB131083 JFX131081:JFX131083 JPT131081:JPT131083 JZP131081:JZP131083 KJL131081:KJL131083 KTH131081:KTH131083 LDD131081:LDD131083 LMZ131081:LMZ131083 LWV131081:LWV131083 MGR131081:MGR131083 MQN131081:MQN131083 NAJ131081:NAJ131083 NKF131081:NKF131083 NUB131081:NUB131083 ODX131081:ODX131083 ONT131081:ONT131083 OXP131081:OXP131083 PHL131081:PHL131083 PRH131081:PRH131083 QBD131081:QBD131083 QKZ131081:QKZ131083 QUV131081:QUV131083 RER131081:RER131083 RON131081:RON131083 RYJ131081:RYJ131083 SIF131081:SIF131083 SSB131081:SSB131083 TBX131081:TBX131083 TLT131081:TLT131083 TVP131081:TVP131083 UFL131081:UFL131083 UPH131081:UPH131083 UZD131081:UZD131083 VIZ131081:VIZ131083 VSV131081:VSV131083 WCR131081:WCR131083 WMN131081:WMN131083 WWJ131081:WWJ131083 AB196617:AB196619 JX196617:JX196619 TT196617:TT196619 ADP196617:ADP196619 ANL196617:ANL196619 AXH196617:AXH196619 BHD196617:BHD196619 BQZ196617:BQZ196619 CAV196617:CAV196619 CKR196617:CKR196619 CUN196617:CUN196619 DEJ196617:DEJ196619 DOF196617:DOF196619 DYB196617:DYB196619 EHX196617:EHX196619 ERT196617:ERT196619 FBP196617:FBP196619 FLL196617:FLL196619 FVH196617:FVH196619 GFD196617:GFD196619 GOZ196617:GOZ196619 GYV196617:GYV196619 HIR196617:HIR196619 HSN196617:HSN196619 ICJ196617:ICJ196619 IMF196617:IMF196619 IWB196617:IWB196619 JFX196617:JFX196619 JPT196617:JPT196619 JZP196617:JZP196619 KJL196617:KJL196619 KTH196617:KTH196619 LDD196617:LDD196619 LMZ196617:LMZ196619 LWV196617:LWV196619 MGR196617:MGR196619 MQN196617:MQN196619 NAJ196617:NAJ196619 NKF196617:NKF196619 NUB196617:NUB196619 ODX196617:ODX196619 ONT196617:ONT196619 OXP196617:OXP196619 PHL196617:PHL196619 PRH196617:PRH196619 QBD196617:QBD196619 QKZ196617:QKZ196619 QUV196617:QUV196619 RER196617:RER196619 RON196617:RON196619 RYJ196617:RYJ196619 SIF196617:SIF196619 SSB196617:SSB196619 TBX196617:TBX196619 TLT196617:TLT196619 TVP196617:TVP196619 UFL196617:UFL196619 UPH196617:UPH196619 UZD196617:UZD196619 VIZ196617:VIZ196619 VSV196617:VSV196619 WCR196617:WCR196619 WMN196617:WMN196619 WWJ196617:WWJ196619 AB262153:AB262155 JX262153:JX262155 TT262153:TT262155 ADP262153:ADP262155 ANL262153:ANL262155 AXH262153:AXH262155 BHD262153:BHD262155 BQZ262153:BQZ262155 CAV262153:CAV262155 CKR262153:CKR262155 CUN262153:CUN262155 DEJ262153:DEJ262155 DOF262153:DOF262155 DYB262153:DYB262155 EHX262153:EHX262155 ERT262153:ERT262155 FBP262153:FBP262155 FLL262153:FLL262155 FVH262153:FVH262155 GFD262153:GFD262155 GOZ262153:GOZ262155 GYV262153:GYV262155 HIR262153:HIR262155 HSN262153:HSN262155 ICJ262153:ICJ262155 IMF262153:IMF262155 IWB262153:IWB262155 JFX262153:JFX262155 JPT262153:JPT262155 JZP262153:JZP262155 KJL262153:KJL262155 KTH262153:KTH262155 LDD262153:LDD262155 LMZ262153:LMZ262155 LWV262153:LWV262155 MGR262153:MGR262155 MQN262153:MQN262155 NAJ262153:NAJ262155 NKF262153:NKF262155 NUB262153:NUB262155 ODX262153:ODX262155 ONT262153:ONT262155 OXP262153:OXP262155 PHL262153:PHL262155 PRH262153:PRH262155 QBD262153:QBD262155 QKZ262153:QKZ262155 QUV262153:QUV262155 RER262153:RER262155 RON262153:RON262155 RYJ262153:RYJ262155 SIF262153:SIF262155 SSB262153:SSB262155 TBX262153:TBX262155 TLT262153:TLT262155 TVP262153:TVP262155 UFL262153:UFL262155 UPH262153:UPH262155 UZD262153:UZD262155 VIZ262153:VIZ262155 VSV262153:VSV262155 WCR262153:WCR262155 WMN262153:WMN262155 WWJ262153:WWJ262155 AB327689:AB327691 JX327689:JX327691 TT327689:TT327691 ADP327689:ADP327691 ANL327689:ANL327691 AXH327689:AXH327691 BHD327689:BHD327691 BQZ327689:BQZ327691 CAV327689:CAV327691 CKR327689:CKR327691 CUN327689:CUN327691 DEJ327689:DEJ327691 DOF327689:DOF327691 DYB327689:DYB327691 EHX327689:EHX327691 ERT327689:ERT327691 FBP327689:FBP327691 FLL327689:FLL327691 FVH327689:FVH327691 GFD327689:GFD327691 GOZ327689:GOZ327691 GYV327689:GYV327691 HIR327689:HIR327691 HSN327689:HSN327691 ICJ327689:ICJ327691 IMF327689:IMF327691 IWB327689:IWB327691 JFX327689:JFX327691 JPT327689:JPT327691 JZP327689:JZP327691 KJL327689:KJL327691 KTH327689:KTH327691 LDD327689:LDD327691 LMZ327689:LMZ327691 LWV327689:LWV327691 MGR327689:MGR327691 MQN327689:MQN327691 NAJ327689:NAJ327691 NKF327689:NKF327691 NUB327689:NUB327691 ODX327689:ODX327691 ONT327689:ONT327691 OXP327689:OXP327691 PHL327689:PHL327691 PRH327689:PRH327691 QBD327689:QBD327691 QKZ327689:QKZ327691 QUV327689:QUV327691 RER327689:RER327691 RON327689:RON327691 RYJ327689:RYJ327691 SIF327689:SIF327691 SSB327689:SSB327691 TBX327689:TBX327691 TLT327689:TLT327691 TVP327689:TVP327691 UFL327689:UFL327691 UPH327689:UPH327691 UZD327689:UZD327691 VIZ327689:VIZ327691 VSV327689:VSV327691 WCR327689:WCR327691 WMN327689:WMN327691 WWJ327689:WWJ327691 AB393225:AB393227 JX393225:JX393227 TT393225:TT393227 ADP393225:ADP393227 ANL393225:ANL393227 AXH393225:AXH393227 BHD393225:BHD393227 BQZ393225:BQZ393227 CAV393225:CAV393227 CKR393225:CKR393227 CUN393225:CUN393227 DEJ393225:DEJ393227 DOF393225:DOF393227 DYB393225:DYB393227 EHX393225:EHX393227 ERT393225:ERT393227 FBP393225:FBP393227 FLL393225:FLL393227 FVH393225:FVH393227 GFD393225:GFD393227 GOZ393225:GOZ393227 GYV393225:GYV393227 HIR393225:HIR393227 HSN393225:HSN393227 ICJ393225:ICJ393227 IMF393225:IMF393227 IWB393225:IWB393227 JFX393225:JFX393227 JPT393225:JPT393227 JZP393225:JZP393227 KJL393225:KJL393227 KTH393225:KTH393227 LDD393225:LDD393227 LMZ393225:LMZ393227 LWV393225:LWV393227 MGR393225:MGR393227 MQN393225:MQN393227 NAJ393225:NAJ393227 NKF393225:NKF393227 NUB393225:NUB393227 ODX393225:ODX393227 ONT393225:ONT393227 OXP393225:OXP393227 PHL393225:PHL393227 PRH393225:PRH393227 QBD393225:QBD393227 QKZ393225:QKZ393227 QUV393225:QUV393227 RER393225:RER393227 RON393225:RON393227 RYJ393225:RYJ393227 SIF393225:SIF393227 SSB393225:SSB393227 TBX393225:TBX393227 TLT393225:TLT393227 TVP393225:TVP393227 UFL393225:UFL393227 UPH393225:UPH393227 UZD393225:UZD393227 VIZ393225:VIZ393227 VSV393225:VSV393227 WCR393225:WCR393227 WMN393225:WMN393227 WWJ393225:WWJ393227 AB458761:AB458763 JX458761:JX458763 TT458761:TT458763 ADP458761:ADP458763 ANL458761:ANL458763 AXH458761:AXH458763 BHD458761:BHD458763 BQZ458761:BQZ458763 CAV458761:CAV458763 CKR458761:CKR458763 CUN458761:CUN458763 DEJ458761:DEJ458763 DOF458761:DOF458763 DYB458761:DYB458763 EHX458761:EHX458763 ERT458761:ERT458763 FBP458761:FBP458763 FLL458761:FLL458763 FVH458761:FVH458763 GFD458761:GFD458763 GOZ458761:GOZ458763 GYV458761:GYV458763 HIR458761:HIR458763 HSN458761:HSN458763 ICJ458761:ICJ458763 IMF458761:IMF458763 IWB458761:IWB458763 JFX458761:JFX458763 JPT458761:JPT458763 JZP458761:JZP458763 KJL458761:KJL458763 KTH458761:KTH458763 LDD458761:LDD458763 LMZ458761:LMZ458763 LWV458761:LWV458763 MGR458761:MGR458763 MQN458761:MQN458763 NAJ458761:NAJ458763 NKF458761:NKF458763 NUB458761:NUB458763 ODX458761:ODX458763 ONT458761:ONT458763 OXP458761:OXP458763 PHL458761:PHL458763 PRH458761:PRH458763 QBD458761:QBD458763 QKZ458761:QKZ458763 QUV458761:QUV458763 RER458761:RER458763 RON458761:RON458763 RYJ458761:RYJ458763 SIF458761:SIF458763 SSB458761:SSB458763 TBX458761:TBX458763 TLT458761:TLT458763 TVP458761:TVP458763 UFL458761:UFL458763 UPH458761:UPH458763 UZD458761:UZD458763 VIZ458761:VIZ458763 VSV458761:VSV458763 WCR458761:WCR458763 WMN458761:WMN458763 WWJ458761:WWJ458763 AB524297:AB524299 JX524297:JX524299 TT524297:TT524299 ADP524297:ADP524299 ANL524297:ANL524299 AXH524297:AXH524299 BHD524297:BHD524299 BQZ524297:BQZ524299 CAV524297:CAV524299 CKR524297:CKR524299 CUN524297:CUN524299 DEJ524297:DEJ524299 DOF524297:DOF524299 DYB524297:DYB524299 EHX524297:EHX524299 ERT524297:ERT524299 FBP524297:FBP524299 FLL524297:FLL524299 FVH524297:FVH524299 GFD524297:GFD524299 GOZ524297:GOZ524299 GYV524297:GYV524299 HIR524297:HIR524299 HSN524297:HSN524299 ICJ524297:ICJ524299 IMF524297:IMF524299 IWB524297:IWB524299 JFX524297:JFX524299 JPT524297:JPT524299 JZP524297:JZP524299 KJL524297:KJL524299 KTH524297:KTH524299 LDD524297:LDD524299 LMZ524297:LMZ524299 LWV524297:LWV524299 MGR524297:MGR524299 MQN524297:MQN524299 NAJ524297:NAJ524299 NKF524297:NKF524299 NUB524297:NUB524299 ODX524297:ODX524299 ONT524297:ONT524299 OXP524297:OXP524299 PHL524297:PHL524299 PRH524297:PRH524299 QBD524297:QBD524299 QKZ524297:QKZ524299 QUV524297:QUV524299 RER524297:RER524299 RON524297:RON524299 RYJ524297:RYJ524299 SIF524297:SIF524299 SSB524297:SSB524299 TBX524297:TBX524299 TLT524297:TLT524299 TVP524297:TVP524299 UFL524297:UFL524299 UPH524297:UPH524299 UZD524297:UZD524299 VIZ524297:VIZ524299 VSV524297:VSV524299 WCR524297:WCR524299 WMN524297:WMN524299 WWJ524297:WWJ524299 AB589833:AB589835 JX589833:JX589835 TT589833:TT589835 ADP589833:ADP589835 ANL589833:ANL589835 AXH589833:AXH589835 BHD589833:BHD589835 BQZ589833:BQZ589835 CAV589833:CAV589835 CKR589833:CKR589835 CUN589833:CUN589835 DEJ589833:DEJ589835 DOF589833:DOF589835 DYB589833:DYB589835 EHX589833:EHX589835 ERT589833:ERT589835 FBP589833:FBP589835 FLL589833:FLL589835 FVH589833:FVH589835 GFD589833:GFD589835 GOZ589833:GOZ589835 GYV589833:GYV589835 HIR589833:HIR589835 HSN589833:HSN589835 ICJ589833:ICJ589835 IMF589833:IMF589835 IWB589833:IWB589835 JFX589833:JFX589835 JPT589833:JPT589835 JZP589833:JZP589835 KJL589833:KJL589835 KTH589833:KTH589835 LDD589833:LDD589835 LMZ589833:LMZ589835 LWV589833:LWV589835 MGR589833:MGR589835 MQN589833:MQN589835 NAJ589833:NAJ589835 NKF589833:NKF589835 NUB589833:NUB589835 ODX589833:ODX589835 ONT589833:ONT589835 OXP589833:OXP589835 PHL589833:PHL589835 PRH589833:PRH589835 QBD589833:QBD589835 QKZ589833:QKZ589835 QUV589833:QUV589835 RER589833:RER589835 RON589833:RON589835 RYJ589833:RYJ589835 SIF589833:SIF589835 SSB589833:SSB589835 TBX589833:TBX589835 TLT589833:TLT589835 TVP589833:TVP589835 UFL589833:UFL589835 UPH589833:UPH589835 UZD589833:UZD589835 VIZ589833:VIZ589835 VSV589833:VSV589835 WCR589833:WCR589835 WMN589833:WMN589835 WWJ589833:WWJ589835 AB655369:AB655371 JX655369:JX655371 TT655369:TT655371 ADP655369:ADP655371 ANL655369:ANL655371 AXH655369:AXH655371 BHD655369:BHD655371 BQZ655369:BQZ655371 CAV655369:CAV655371 CKR655369:CKR655371 CUN655369:CUN655371 DEJ655369:DEJ655371 DOF655369:DOF655371 DYB655369:DYB655371 EHX655369:EHX655371 ERT655369:ERT655371 FBP655369:FBP655371 FLL655369:FLL655371 FVH655369:FVH655371 GFD655369:GFD655371 GOZ655369:GOZ655371 GYV655369:GYV655371 HIR655369:HIR655371 HSN655369:HSN655371 ICJ655369:ICJ655371 IMF655369:IMF655371 IWB655369:IWB655371 JFX655369:JFX655371 JPT655369:JPT655371 JZP655369:JZP655371 KJL655369:KJL655371 KTH655369:KTH655371 LDD655369:LDD655371 LMZ655369:LMZ655371 LWV655369:LWV655371 MGR655369:MGR655371 MQN655369:MQN655371 NAJ655369:NAJ655371 NKF655369:NKF655371 NUB655369:NUB655371 ODX655369:ODX655371 ONT655369:ONT655371 OXP655369:OXP655371 PHL655369:PHL655371 PRH655369:PRH655371 QBD655369:QBD655371 QKZ655369:QKZ655371 QUV655369:QUV655371 RER655369:RER655371 RON655369:RON655371 RYJ655369:RYJ655371 SIF655369:SIF655371 SSB655369:SSB655371 TBX655369:TBX655371 TLT655369:TLT655371 TVP655369:TVP655371 UFL655369:UFL655371 UPH655369:UPH655371 UZD655369:UZD655371 VIZ655369:VIZ655371 VSV655369:VSV655371 WCR655369:WCR655371 WMN655369:WMN655371 WWJ655369:WWJ655371 AB720905:AB720907 JX720905:JX720907 TT720905:TT720907 ADP720905:ADP720907 ANL720905:ANL720907 AXH720905:AXH720907 BHD720905:BHD720907 BQZ720905:BQZ720907 CAV720905:CAV720907 CKR720905:CKR720907 CUN720905:CUN720907 DEJ720905:DEJ720907 DOF720905:DOF720907 DYB720905:DYB720907 EHX720905:EHX720907 ERT720905:ERT720907 FBP720905:FBP720907 FLL720905:FLL720907 FVH720905:FVH720907 GFD720905:GFD720907 GOZ720905:GOZ720907 GYV720905:GYV720907 HIR720905:HIR720907 HSN720905:HSN720907 ICJ720905:ICJ720907 IMF720905:IMF720907 IWB720905:IWB720907 JFX720905:JFX720907 JPT720905:JPT720907 JZP720905:JZP720907 KJL720905:KJL720907 KTH720905:KTH720907 LDD720905:LDD720907 LMZ720905:LMZ720907 LWV720905:LWV720907 MGR720905:MGR720907 MQN720905:MQN720907 NAJ720905:NAJ720907 NKF720905:NKF720907 NUB720905:NUB720907 ODX720905:ODX720907 ONT720905:ONT720907 OXP720905:OXP720907 PHL720905:PHL720907 PRH720905:PRH720907 QBD720905:QBD720907 QKZ720905:QKZ720907 QUV720905:QUV720907 RER720905:RER720907 RON720905:RON720907 RYJ720905:RYJ720907 SIF720905:SIF720907 SSB720905:SSB720907 TBX720905:TBX720907 TLT720905:TLT720907 TVP720905:TVP720907 UFL720905:UFL720907 UPH720905:UPH720907 UZD720905:UZD720907 VIZ720905:VIZ720907 VSV720905:VSV720907 WCR720905:WCR720907 WMN720905:WMN720907 WWJ720905:WWJ720907 AB786441:AB786443 JX786441:JX786443 TT786441:TT786443 ADP786441:ADP786443 ANL786441:ANL786443 AXH786441:AXH786443 BHD786441:BHD786443 BQZ786441:BQZ786443 CAV786441:CAV786443 CKR786441:CKR786443 CUN786441:CUN786443 DEJ786441:DEJ786443 DOF786441:DOF786443 DYB786441:DYB786443 EHX786441:EHX786443 ERT786441:ERT786443 FBP786441:FBP786443 FLL786441:FLL786443 FVH786441:FVH786443 GFD786441:GFD786443 GOZ786441:GOZ786443 GYV786441:GYV786443 HIR786441:HIR786443 HSN786441:HSN786443 ICJ786441:ICJ786443 IMF786441:IMF786443 IWB786441:IWB786443 JFX786441:JFX786443 JPT786441:JPT786443 JZP786441:JZP786443 KJL786441:KJL786443 KTH786441:KTH786443 LDD786441:LDD786443 LMZ786441:LMZ786443 LWV786441:LWV786443 MGR786441:MGR786443 MQN786441:MQN786443 NAJ786441:NAJ786443 NKF786441:NKF786443 NUB786441:NUB786443 ODX786441:ODX786443 ONT786441:ONT786443 OXP786441:OXP786443 PHL786441:PHL786443 PRH786441:PRH786443 QBD786441:QBD786443 QKZ786441:QKZ786443 QUV786441:QUV786443 RER786441:RER786443 RON786441:RON786443 RYJ786441:RYJ786443 SIF786441:SIF786443 SSB786441:SSB786443 TBX786441:TBX786443 TLT786441:TLT786443 TVP786441:TVP786443 UFL786441:UFL786443 UPH786441:UPH786443 UZD786441:UZD786443 VIZ786441:VIZ786443 VSV786441:VSV786443 WCR786441:WCR786443 WMN786441:WMN786443 WWJ786441:WWJ786443 AB851977:AB851979 JX851977:JX851979 TT851977:TT851979 ADP851977:ADP851979 ANL851977:ANL851979 AXH851977:AXH851979 BHD851977:BHD851979 BQZ851977:BQZ851979 CAV851977:CAV851979 CKR851977:CKR851979 CUN851977:CUN851979 DEJ851977:DEJ851979 DOF851977:DOF851979 DYB851977:DYB851979 EHX851977:EHX851979 ERT851977:ERT851979 FBP851977:FBP851979 FLL851977:FLL851979 FVH851977:FVH851979 GFD851977:GFD851979 GOZ851977:GOZ851979 GYV851977:GYV851979 HIR851977:HIR851979 HSN851977:HSN851979 ICJ851977:ICJ851979 IMF851977:IMF851979 IWB851977:IWB851979 JFX851977:JFX851979 JPT851977:JPT851979 JZP851977:JZP851979 KJL851977:KJL851979 KTH851977:KTH851979 LDD851977:LDD851979 LMZ851977:LMZ851979 LWV851977:LWV851979 MGR851977:MGR851979 MQN851977:MQN851979 NAJ851977:NAJ851979 NKF851977:NKF851979 NUB851977:NUB851979 ODX851977:ODX851979 ONT851977:ONT851979 OXP851977:OXP851979 PHL851977:PHL851979 PRH851977:PRH851979 QBD851977:QBD851979 QKZ851977:QKZ851979 QUV851977:QUV851979 RER851977:RER851979 RON851977:RON851979 RYJ851977:RYJ851979 SIF851977:SIF851979 SSB851977:SSB851979 TBX851977:TBX851979 TLT851977:TLT851979 TVP851977:TVP851979 UFL851977:UFL851979 UPH851977:UPH851979 UZD851977:UZD851979 VIZ851977:VIZ851979 VSV851977:VSV851979 WCR851977:WCR851979 WMN851977:WMN851979 WWJ851977:WWJ851979 AB917513:AB917515 JX917513:JX917515 TT917513:TT917515 ADP917513:ADP917515 ANL917513:ANL917515 AXH917513:AXH917515 BHD917513:BHD917515 BQZ917513:BQZ917515 CAV917513:CAV917515 CKR917513:CKR917515 CUN917513:CUN917515 DEJ917513:DEJ917515 DOF917513:DOF917515 DYB917513:DYB917515 EHX917513:EHX917515 ERT917513:ERT917515 FBP917513:FBP917515 FLL917513:FLL917515 FVH917513:FVH917515 GFD917513:GFD917515 GOZ917513:GOZ917515 GYV917513:GYV917515 HIR917513:HIR917515 HSN917513:HSN917515 ICJ917513:ICJ917515 IMF917513:IMF917515 IWB917513:IWB917515 JFX917513:JFX917515 JPT917513:JPT917515 JZP917513:JZP917515 KJL917513:KJL917515 KTH917513:KTH917515 LDD917513:LDD917515 LMZ917513:LMZ917515 LWV917513:LWV917515 MGR917513:MGR917515 MQN917513:MQN917515 NAJ917513:NAJ917515 NKF917513:NKF917515 NUB917513:NUB917515 ODX917513:ODX917515 ONT917513:ONT917515 OXP917513:OXP917515 PHL917513:PHL917515 PRH917513:PRH917515 QBD917513:QBD917515 QKZ917513:QKZ917515 QUV917513:QUV917515 RER917513:RER917515 RON917513:RON917515 RYJ917513:RYJ917515 SIF917513:SIF917515 SSB917513:SSB917515 TBX917513:TBX917515 TLT917513:TLT917515 TVP917513:TVP917515 UFL917513:UFL917515 UPH917513:UPH917515 UZD917513:UZD917515 VIZ917513:VIZ917515 VSV917513:VSV917515 WCR917513:WCR917515 WMN917513:WMN917515 WWJ917513:WWJ917515 AB983049:AB983051 JX983049:JX983051 TT983049:TT983051 ADP983049:ADP983051 ANL983049:ANL983051 AXH983049:AXH983051 BHD983049:BHD983051 BQZ983049:BQZ983051 CAV983049:CAV983051 CKR983049:CKR983051 CUN983049:CUN983051 DEJ983049:DEJ983051 DOF983049:DOF983051 DYB983049:DYB983051 EHX983049:EHX983051 ERT983049:ERT983051 FBP983049:FBP983051 FLL983049:FLL983051 FVH983049:FVH983051 GFD983049:GFD983051 GOZ983049:GOZ983051 GYV983049:GYV983051 HIR983049:HIR983051 HSN983049:HSN983051 ICJ983049:ICJ983051 IMF983049:IMF983051 IWB983049:IWB983051 JFX983049:JFX983051 JPT983049:JPT983051 JZP983049:JZP983051 KJL983049:KJL983051 KTH983049:KTH983051 LDD983049:LDD983051 LMZ983049:LMZ983051 LWV983049:LWV983051 MGR983049:MGR983051 MQN983049:MQN983051 NAJ983049:NAJ983051 NKF983049:NKF983051 NUB983049:NUB983051 ODX983049:ODX983051 ONT983049:ONT983051 OXP983049:OXP983051 PHL983049:PHL983051 PRH983049:PRH983051 QBD983049:QBD983051 QKZ983049:QKZ983051 QUV983049:QUV983051 RER983049:RER983051 RON983049:RON983051 RYJ983049:RYJ983051 SIF983049:SIF983051 SSB983049:SSB983051 TBX983049:TBX983051 TLT983049:TLT983051 TVP983049:TVP983051 UFL983049:UFL983051 UPH983049:UPH983051 UZD983049:UZD983051 VIZ983049:VIZ983051 VSV983049:VSV983051 WCR983049:WCR983051 WMN983049:WMN983051 WWJ983049:WWJ983051" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>ISNUMBER(AB9*1)</formula1>
     </dataValidation>
   </dataValidations>
